--- a/data/trans_dic/P3A_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Provincia-trans_dic.xlsx
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,81; 7,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,26; 4,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,92; 5,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>3,03; 7,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>0,89; 5,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,23; 7,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,39; 6,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>3,91; 8,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,27; 5,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,06; 5,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>1,57; 4,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,78; 6,74</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>2,2; 5,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>1,18; 4,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>0,57; 2,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>1,88; 5,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,99; 5,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,93; 6,92</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,07; 4,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,42; 6,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,42; 5,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,39; 4,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>1,04; 2,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,01; 5,32</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,15%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,99%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>2,39; 6,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>3,72; 9,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>1,24; 4,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>4,59; 9,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>2,25; 6,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>2,92; 8,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>0,63; 3,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>7,13; 12,05</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,78; 5,74</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,01; 7,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>1,19; 3,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>6,54; 10,07</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,47%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,08; 5,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,75; 5,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>0,44; 2,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>5,29; 12,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>3,41; 7,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,82; 5,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,32; 6,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,09; 7,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,05; 6,0</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,21; 4,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>1,13; 3,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>4,48; 8,54</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>1,3; 6,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>2,42; 9,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,0; 2,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,57; 5,84</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>0,0; 3,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>2,32; 8,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>0,42; 3,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,65; 5,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,04; 3,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>3,04; 7,32</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,44; 2,63</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,1; 4,75</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,18%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,68%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>2,48; 7,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>6,07; 13,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>1,25; 5,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>4,44; 8,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,37; 3,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,19; 7,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>2,86; 9,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>6,89; 12,35</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>1,89; 4,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,89; 9,14</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,63; 6,25</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>6,22; 9,58</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>1,88; 4,9</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,9; 4,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,39; 5,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,93; 8,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>1,73; 4,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,4; 7,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,52; 5,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>2,59; 7,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,14; 4,05</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,01; 5,47</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>2,8; 4,94</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,36; 6,79</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,34%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,48; 6,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,14; 4,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>1,85; 4,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,51; 2,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>2,12; 4,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,94; 5,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>1,83; 4,59</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>2,57; 4,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>3,03; 5,1</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,94; 4,84</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,13; 4,0</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>1,42; 3,07</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,41; 4,8</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,11; 4,5</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,96; 2,98</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,41; 5,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,57; 3,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>3,81; 5,28</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>2,48; 3,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,33; 6,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,18; 4,06</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>3,68; 4,72</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>2,35; 3,2</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>4,17; 5,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P3A_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,77</t>
+          <t>2,7; 8,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,9</t>
+          <t>1,2; 4,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,12</t>
+          <t>1,1; 4,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,03; 7,44</t>
+          <t>2,87; 7,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,02</t>
+          <t>0,89; 5,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,55</t>
+          <t>2,25; 7,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,39; 6,35</t>
+          <t>1,26; 6,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 8,06</t>
+          <t>3,69; 7,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,58</t>
+          <t>2,07; 5,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,21</t>
+          <t>2,04; 5,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,7</t>
+          <t>1,65; 4,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 6,74</t>
+          <t>3,77; 6,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,99</t>
+          <t>2,13; 5,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,48</t>
+          <t>1,02; 4,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,55</t>
+          <t>0,55; 2,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,55</t>
+          <t>1,9; 5,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,99; 5,29</t>
+          <t>2,0; 5,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,93; 6,92</t>
+          <t>2,94; 6,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,01</t>
+          <t>0,99; 4,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,42; 6,2</t>
+          <t>3,42; 6,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,05</t>
+          <t>2,5; 5,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,75</t>
+          <t>2,34; 4,9</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,96</t>
+          <t>1,1; 3,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,32</t>
+          <t>3,05; 5,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,81</t>
+          <t>2,42; 6,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 9,14</t>
+          <t>3,74; 9,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,67</t>
+          <t>1,23; 4,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,43</t>
+          <t>4,53; 9,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,72</t>
+          <t>2,21; 6,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,92; 8,17</t>
+          <t>3,07; 8,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 3,7</t>
+          <t>0,64; 3,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 12,05</t>
+          <t>7,07; 12,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,74</t>
+          <t>2,86; 5,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,54</t>
+          <t>3,92; 7,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,55</t>
+          <t>1,24; 3,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,54; 10,07</t>
+          <t>6,41; 9,7</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,91</t>
+          <t>1,86; 6,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,41</t>
+          <t>1,41; 5,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,64</t>
+          <t>0,45; 2,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,29; 12,5</t>
+          <t>5,35; 13,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 7,85</t>
+          <t>3,39; 8,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,82; 5,78</t>
+          <t>1,84; 5,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,26</t>
+          <t>1,39; 6,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 7,28</t>
+          <t>3,19; 7,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,0</t>
+          <t>3,08; 6,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,82</t>
+          <t>1,97; 4,76</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,79</t>
+          <t>1,15; 3,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,54</t>
+          <t>4,67; 8,61</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,75</t>
+          <t>1,3; 6,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,42; 9,49</t>
+          <t>2,54; 9,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,78</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,84</t>
+          <t>1,64; 5,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>0,0; 3,27</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 8,13</t>
+          <t>2,32; 8,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,97</t>
+          <t>0,42; 4,09</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,65; 5,19</t>
+          <t>1,61; 5,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,94</t>
+          <t>1,02; 3,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,32</t>
+          <t>3,09; 7,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,63</t>
+          <t>0,45; 2,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 4,75</t>
+          <t>2,04; 4,65</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 7,54</t>
+          <t>2,45; 7,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,07; 13,5</t>
+          <t>5,95; 13,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,14</t>
+          <t>1,33; 5,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,48</t>
+          <t>4,33; 8,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,38</t>
+          <t>0,37; 3,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,19; 7,34</t>
+          <t>2,26; 7,59</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,86; 9,19</t>
+          <t>2,72; 9,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,89; 12,35</t>
+          <t>6,93; 12,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,91</t>
+          <t>1,8; 4,65</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 9,14</t>
+          <t>4,89; 9,23</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,25</t>
+          <t>2,55; 5,96</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,22; 9,58</t>
+          <t>6,26; 9,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,9</t>
+          <t>2,02; 4,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,86</t>
+          <t>1,86; 4,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,65</t>
+          <t>2,27; 5,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,2</t>
+          <t>3,84; 8,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,5</t>
+          <t>1,65; 4,51</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,14</t>
+          <t>3,46; 7,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,73</t>
+          <t>2,53; 5,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,42</t>
+          <t>2,34; 7,11</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,05</t>
+          <t>2,13; 4,09</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,01; 5,47</t>
+          <t>3,0; 5,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 4,94</t>
+          <t>2,76; 5,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,79</t>
+          <t>3,12; 6,7</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,84</t>
+          <t>3,58; 6,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,64</t>
+          <t>1,99; 4,55</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,85; 4,37</t>
+          <t>1,84; 4,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,37</t>
+          <t>0,54; 2,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>2,12; 4,57</t>
+          <t>2,15; 4,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,97</t>
+          <t>2,96; 5,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,83; 4,59</t>
+          <t>1,79; 4,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,57; 4,62</t>
+          <t>2,53; 4,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,03; 5,1</t>
+          <t>3,12; 5,23</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,84</t>
+          <t>2,92; 4,9</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,0</t>
+          <t>2,13; 3,94</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,07</t>
+          <t>1,37; 3,07</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,41; 4,8</t>
+          <t>3,36; 4,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,11; 4,5</t>
+          <t>3,14; 4,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,96; 2,98</t>
+          <t>1,96; 3,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,1</t>
+          <t>3,35; 5,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,57; 3,8</t>
+          <t>2,59; 3,81</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,28</t>
+          <t>3,93; 5,42</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,76</t>
+          <t>2,4; 3,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,02</t>
+          <t>4,46; 6,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>3,18; 4,06</t>
+          <t>3,18; 4,08</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,68; 4,72</t>
+          <t>3,72; 4,69</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>2,35; 3,2</t>
+          <t>2,35; 3,18</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,17; 5,4</t>
+          <t>4,24; 5,45</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente una persona con remuneración</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12704</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7706</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7152</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14596</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6566</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12459</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9236</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>16259</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>19270</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>20165</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>16388</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>30854</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>7372; 21892</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3545; 14717</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3236; 14642</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8934; 23016</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2320; 13634</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6474; 21573</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3643; 17884</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>10684; 22724</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>11015; 28768</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>11866; 30496</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9619; 27266</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>22681; 40116</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>18395</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>11374</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6589</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17068</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16768</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24339</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11739</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>24130</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>35163</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>35713</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18327</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>41198</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10516; 29432</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>5159; 20313</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2763; 12851</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9861; 29204</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>10076; 28177</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15403; 35866</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>5165; 21832</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17619; 32553</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>24885; 50638</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>24068; 50415</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11185; 31214</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>31494; 53944</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13394</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19128</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8023</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>21023</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13732</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17444</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5669</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31991</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>27126</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>36572</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13692</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>53014</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7726; 21607</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12107; 29779</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3915; 14741</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14277; 30068</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7424; 22782</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10477; 27668</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2144; 12797</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24601; 42375</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18701; 39154</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>26066; 51630</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8111; 22434</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>42514; 64353</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>12919</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>11639</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>4373</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>25421</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>19658</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13685</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>11872</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>25548</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>32577</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>25325</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16246</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>50969</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6681; 21701</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>5281; 19819</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1641; 9993</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>16726; 40698</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12536; 29675</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7145; 22062</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5386; 24229</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15185; 35337</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>22472; 44023</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14995; 36334</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8703; 28501</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>36784; 67857</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>6739</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>10768</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1948</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>5622</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2119</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10172</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3176</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>8715</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8858</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>20940</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5124</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14338</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2651; 13657</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5394; 20051</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6990</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2925; 10194</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 6796</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5095; 18497</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>911; 8912</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4159; 12942</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4175; 15985</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13359; 31817</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1930; 11595</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>8937; 20330</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12310</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>25570</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7124</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16655</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12114</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>14590</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>23809</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>16545</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>37684</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>21714</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>40463</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>6647; 21394</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>16301; 37329</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>3484; 14055</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>11674; 22091</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1036; 10298</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>6332; 21255</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>7403; 24687</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>17826; 31462</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>9891; 25522</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>27102; 51127</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>13580; 31796</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>32997; 50766</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>19512</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>20166</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>24372</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>35300</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>17983</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>35524</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>26635</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>43165</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>37495</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>55690</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>51007</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>78465</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>12400; 30422</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>12335; 32361</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>14875; 36649</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>23963; 51667</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>10501; 28650</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>23990; 51202</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>17439; 39846</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>19906; 60365</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>26583; 51204</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>40693; 74079</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>37159; 67200</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>46045; 98701</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>36464</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>24654</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>22576</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>13366</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>25224</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>36128</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>23999</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>25113</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>61688</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>60781</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>46576</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>38479</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>26600; 49718</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>15501; 35482</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>14301; 33815</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>5037; 21611</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>16881; 37595</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>24303; 48780</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>14820; 35873</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>18187; 33023</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>47687; 79840</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>46824; 78476</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>34193; 63179</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>22504; 50530</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>583</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>132436</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>131005</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>82158</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>149050</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>106285</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>161866</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>106916</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>198729</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>238721</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>292870</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>189073</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>347779</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>110225; 156128</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>107733; 154617</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>66300; 101792</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>115754; 179417</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>87566; 128710</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>139713; 192863</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>84935; 132123</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>165465; 223279</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>211408; 271328</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>260008; 327290</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>162745; 220265</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>303718; 390597</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>